--- a/周数据/《个人上线率统计表》-翁晨.xlsx
+++ b/周数据/《个人上线率统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22296" windowHeight="7920"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -142,6 +142,39 @@
     <t>销售人员</t>
   </si>
   <si>
+    <t>大朱小厨鱼虾馆</t>
+  </si>
+  <si>
+    <t>未装修完成</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>崔冰冰</t>
+  </si>
+  <si>
+    <t>筱隐茶饮</t>
+  </si>
+  <si>
+    <t>暂定五月中旬</t>
+  </si>
+  <si>
+    <t>戴真兵</t>
+  </si>
+  <si>
+    <t>朝天门火锅</t>
+  </si>
+  <si>
+    <t>等通知，暂定下月中旬</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -150,19 +183,28 @@
   <si>
     <t>加班内容</t>
   </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>14~15</t>
+  </si>
+  <si>
+    <t>前往常熟安装内存条</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +214,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -239,29 +274,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +297,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,38 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,10 +350,48 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,17 +403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,16 +416,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,13 +474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,103 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +534,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,43 +630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,6 +1033,45 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,9 +1093,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,56 +1134,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,10 +1142,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,133 +1154,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,13 +1303,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1304,28 +1327,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1337,58 +1360,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1448,10 +1468,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1482,6 +1502,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1821,7 +1844,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:M22"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
@@ -1834,174 +1857,210 @@
     <col min="7" max="7" width="15.4537037037037" style="11" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.9074074074074" style="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.9074074074074" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.9074074074074" style="40" customWidth="1"/>
+    <col min="10" max="10" width="17.9074074074074" style="39" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.9074074074074" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.6296296296296" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.35" spans="1:13">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" ht="15.15" spans="1:13">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="49">
-        <v>12</v>
-      </c>
-      <c r="B3" s="50">
+      <c r="A3" s="48">
+        <v>4</v>
+      </c>
+      <c r="B3" s="49">
         <v>15</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="50">
         <v>1</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <v>1</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="69">
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="68">
         <v>0</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="69">
         <v>0</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="70">
         <v>1</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="71">
         <v>1</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49">
+        <v>16</v>
+      </c>
+      <c r="C4" s="50">
+        <v>3</v>
+      </c>
+      <c r="D4" s="51">
+        <v>1</v>
+      </c>
+      <c r="E4" s="51">
+        <v>2</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="68">
+        <v>0</v>
+      </c>
+      <c r="J4" s="69">
+        <v>0</v>
+      </c>
+      <c r="K4" s="70">
+        <v>3</v>
+      </c>
+      <c r="L4" s="71">
+        <v>1</v>
+      </c>
+      <c r="M4" s="73">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49">
+        <v>17</v>
+      </c>
+      <c r="C5" s="50">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>1</v>
+      </c>
+      <c r="E5" s="51">
+        <v>3</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="68">
+        <v>0</v>
+      </c>
+      <c r="J5" s="69">
+        <v>0</v>
+      </c>
+      <c r="K5" s="70">
+        <v>4</v>
+      </c>
+      <c r="L5" s="71">
+        <v>1</v>
+      </c>
+      <c r="M5" s="72">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:13">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="74"/>
       <c r="J8" s="75"/>
       <c r="K8" s="76"/>
@@ -2009,244 +2068,244 @@
       <c r="M8" s="78"/>
     </row>
     <row r="9" ht="0.75" customHeight="1" spans="1:10">
-      <c r="A9" s="49">
-        <v>1</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="A9" s="48">
+        <v>5</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="I9" s="74"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="55"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="61">
-        <v>2</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="A15" s="60">
+        <v>6</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
+    </row>
+    <row r="19" ht="15.15" spans="1:13">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="61">
-        <v>3</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
+      <c r="A20" s="60">
+        <v>7</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="72"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2267,8 +2326,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.72222222222222" defaultRowHeight="14.4"/>
@@ -2286,50 +2345,50 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="28.8" spans="1:15">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="30" customFormat="1" ht="28.8" spans="1:15">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2340,7 +2399,7 @@
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="36"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -2357,14 +2416,14 @@
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="36"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="1"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="36"/>
+      <c r="N3" s="35"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
@@ -2374,7 +2433,7 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="36"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -2500,7 +2559,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
@@ -2517,7 +2576,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
@@ -2607,7 +2666,7 @@
       <c r="F17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>76152875</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -7470,7 +7529,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7511,30 +7570,66 @@
       <c r="A2" s="17">
         <v>13</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="19">
+        <v>43202</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="19">
+        <v>43202</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="19">
+        <v>43213</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="22"/>
@@ -8038,7 +8133,7 @@
       <c r="D60" s="27"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="30"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="22"/>
@@ -8146,7 +8241,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="30"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
@@ -8236,7 +8331,7 @@
       <c r="D82" s="27"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="30"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="22"/>
@@ -8341,7 +8436,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -8358,20 +8453,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="8"/>

--- a/周数据/《个人上线率统计表》-翁晨.xlsx
+++ b/周数据/《个人上线率统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="22943" windowHeight="9947" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -127,6 +127,12 @@
     <t>新品牌</t>
   </si>
   <si>
+    <t>大朱小厨鱼虾管</t>
+  </si>
+  <si>
+    <t>朱老板</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -142,10 +148,10 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>大朱小厨鱼虾馆</t>
+    <t>筱隐茶饮</t>
   </si>
   <si>
-    <t>未装修完成</t>
+    <t>商户暂未安装完成，等待后期对接</t>
   </si>
   <si>
     <t>单店</t>
@@ -154,22 +160,10 @@
     <t>SAAS+微信</t>
   </si>
   <si>
-    <t>崔冰冰</t>
-  </si>
-  <si>
-    <t>筱隐茶饮</t>
-  </si>
-  <si>
-    <t>暂定五月中旬</t>
-  </si>
-  <si>
     <t>戴真兵</t>
   </si>
   <si>
     <t>朝天门火锅</t>
-  </si>
-  <si>
-    <t>等通知，暂定下月中旬</t>
   </si>
   <si>
     <t>沈芳芳</t>
@@ -184,13 +178,10 @@
     <t>加班内容</t>
   </si>
   <si>
-    <t>4月</t>
-  </si>
-  <si>
     <t>14~15</t>
   </si>
   <si>
-    <t>前往常熟安装内存条</t>
+    <t>前往常熟店更换内存条</t>
   </si>
 </sst>
 </file>
@@ -198,13 +189,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,11 +256,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,16 +294,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -312,44 +368,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -358,38 +376,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,15 +399,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,13 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +484,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,19 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,73 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,19 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1031,78 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,45 +1124,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1101,39 +1132,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1142,10 +1140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,133 +1152,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,6 +1394,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1405,10 +1406,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,10 +1469,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,9 +1503,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1843,8 +1841,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
@@ -1857,210 +1855,174 @@
     <col min="7" max="7" width="15.4537037037037" style="11" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.9074074074074" style="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.9074074074074" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.9074074074074" style="39" customWidth="1"/>
+    <col min="10" max="10" width="17.9074074074074" style="40" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.9074074074074" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.6296296296296" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.35" spans="1:13">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="62"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" ht="15.15" spans="1:13">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="48">
+      <c r="A3" s="49">
         <v>4</v>
       </c>
-      <c r="B3" s="49">
-        <v>15</v>
-      </c>
-      <c r="C3" s="50">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51">
-        <v>1</v>
-      </c>
-      <c r="E3" s="51">
+      <c r="B3" s="50">
+        <v>17</v>
+      </c>
+      <c r="C3" s="51">
+        <v>4</v>
+      </c>
+      <c r="D3" s="52">
+        <v>2</v>
+      </c>
+      <c r="E3" s="52">
+        <v>2</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="69">
         <v>0</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="68">
+      <c r="J3" s="70">
         <v>0</v>
       </c>
-      <c r="J3" s="69">
-        <v>0</v>
-      </c>
-      <c r="K3" s="70">
-        <v>1</v>
-      </c>
-      <c r="L3" s="71">
-        <v>1</v>
-      </c>
-      <c r="M3" s="72">
-        <v>1</v>
+      <c r="K3" s="71">
+        <v>4</v>
+      </c>
+      <c r="L3" s="72">
+        <v>2</v>
+      </c>
+      <c r="M3" s="73">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49">
-        <v>16</v>
-      </c>
-      <c r="C4" s="50">
-        <v>3</v>
-      </c>
-      <c r="D4" s="51">
-        <v>1</v>
-      </c>
-      <c r="E4" s="51">
-        <v>2</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="68">
-        <v>0</v>
-      </c>
-      <c r="J4" s="69">
-        <v>0</v>
-      </c>
-      <c r="K4" s="70">
-        <v>3</v>
-      </c>
-      <c r="L4" s="71">
-        <v>1</v>
-      </c>
-      <c r="M4" s="73">
-        <v>0.33</v>
-      </c>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49">
-        <v>17</v>
-      </c>
-      <c r="C5" s="50">
-        <v>4</v>
-      </c>
-      <c r="D5" s="51">
-        <v>1</v>
-      </c>
-      <c r="E5" s="51">
-        <v>3</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="68">
-        <v>0</v>
-      </c>
-      <c r="J5" s="69">
-        <v>0</v>
-      </c>
-      <c r="K5" s="70">
-        <v>4</v>
-      </c>
-      <c r="L5" s="71">
-        <v>1</v>
-      </c>
-      <c r="M5" s="72">
-        <v>0.25</v>
-      </c>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" ht="15.15" spans="1:13">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="74"/>
       <c r="J8" s="75"/>
       <c r="K8" s="76"/>
@@ -2068,244 +2030,244 @@
       <c r="M8" s="78"/>
     </row>
     <row r="9" ht="0.75" customHeight="1" spans="1:10">
-      <c r="A9" s="48">
+      <c r="A9" s="49">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="I9" s="74"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="54"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="60">
+      <c r="A15" s="61">
         <v>6</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" ht="15.15" spans="1:13">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="60">
+      <c r="A20" s="61">
         <v>7</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2327,7 +2289,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.72222222222222" defaultRowHeight="14.4"/>
@@ -2370,7 +2332,7 @@
       <c r="H1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="33" t="s">
@@ -2559,7 +2521,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="38"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
@@ -2576,7 +2538,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
@@ -2695,21 +2657,51 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29">
+        <v>43217</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="37">
+        <v>76157761</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1">
+        <v>15195247771</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="1">
+        <v>18018030678</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
@@ -7513,7 +7505,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18 O2:O17 O19:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7528,8 +7520,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7551,19 +7543,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7571,65 +7563,53 @@
         <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="19">
         <v>43202</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
       <c r="B3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="19">
+        <v>43213</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="19">
-        <v>43202</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22"/>
-      <c r="B4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="19">
-        <v>43213</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="22"/>
@@ -8436,7 +8416,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -8453,27 +8433,27 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>55</v>
+      <c r="A2" s="5">
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/周数据/《个人上线率统计表》-翁晨.xlsx
+++ b/周数据/《个人上线率统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9947" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -169,6 +169,24 @@
     <t>沈芳芳</t>
   </si>
   <si>
+    <t xml:space="preserve">   茉莉烘焙坊</t>
+  </si>
+  <si>
+    <t>由于一直未在集团下新建店铺，无法安装</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>俺村小院</t>
+  </si>
+  <si>
+    <t>商户暂定节后安装</t>
+  </si>
+  <si>
+    <t>郑立冬</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -190,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="30">
@@ -271,22 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -298,21 +300,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,13 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -352,10 +332,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,14 +397,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -407,9 +411,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,24 +508,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,12 +545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,24 +580,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,6 +604,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -634,13 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,21 +1049,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,20 +1068,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,6 +1107,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1118,6 +1127,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,10 +1158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,31 +1170,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,104 +1209,98 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,6 +1369,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1855,419 +1876,419 @@
     <col min="7" max="7" width="15.4537037037037" style="11" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.9074074074074" style="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.9074074074074" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.9074074074074" style="40" customWidth="1"/>
+    <col min="10" max="10" width="17.9074074074074" style="41" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.9074074074074" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.6296296296296" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.35" spans="1:13">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="63"/>
-    </row>
-    <row r="2" ht="15.15" spans="1:13">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="64"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="49">
+      <c r="A3" s="50">
         <v>4</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="51">
         <v>17</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="52">
+        <v>6</v>
+      </c>
+      <c r="D3" s="53">
+        <v>2</v>
+      </c>
+      <c r="E3" s="53">
         <v>4</v>
       </c>
-      <c r="D3" s="52">
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="70">
+        <v>0</v>
+      </c>
+      <c r="J3" s="71">
+        <v>0</v>
+      </c>
+      <c r="K3" s="72">
+        <v>6</v>
+      </c>
+      <c r="L3" s="73">
         <v>2</v>
       </c>
-      <c r="E3" s="52">
-        <v>2</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="69">
-        <v>0</v>
-      </c>
-      <c r="J3" s="70">
-        <v>0</v>
-      </c>
-      <c r="K3" s="71">
-        <v>4</v>
-      </c>
-      <c r="L3" s="72">
-        <v>2</v>
-      </c>
-      <c r="M3" s="73">
-        <v>0.5</v>
+      <c r="M3" s="74">
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" ht="15.15" spans="1:13">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
     </row>
     <row r="9" ht="0.75" customHeight="1" spans="1:10">
-      <c r="A9" s="49">
+      <c r="A9" s="50">
         <v>5</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="74"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="55"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="61">
+      <c r="A15" s="62">
         <v>6</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" ht="15.15" spans="1:13">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="61">
+      <c r="A20" s="62">
         <v>7</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2307,61 +2328,61 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="28.8" spans="1:15">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="31" customFormat="1" ht="28.8" spans="1:15">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -2373,29 +2394,29 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="35"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="1"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="35"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -2407,7 +2428,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2424,7 +2445,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -2441,7 +2462,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -2458,7 +2479,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="1"/>
@@ -2475,7 +2496,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="21"/>
@@ -2492,7 +2513,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2509,7 +2530,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="21"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2521,12 +2542,12 @@
       <c r="K11" s="1"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2538,12 +2559,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="21"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2560,7 +2581,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1"/>
       <c r="E14" s="21"/>
@@ -2577,7 +2598,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="21"/>
       <c r="D15" s="1"/>
       <c r="E15" s="21"/>
@@ -2594,7 +2615,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1"/>
       <c r="E16" s="21"/>
@@ -2613,7 +2634,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="30">
         <v>43199</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -2628,7 +2649,7 @@
       <c r="F17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="37">
         <v>76152875</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2660,7 +2681,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="30">
         <v>43217</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2675,7 +2696,7 @@
       <c r="F18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="38">
         <v>76157761</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2705,7 +2726,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2722,7 +2743,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2739,7 +2760,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2756,7 +2777,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2773,7 +2794,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2790,7 +2811,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2807,7 +2828,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="29"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2824,7 +2845,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="29"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2841,7 +2862,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2858,7 +2879,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2875,7 +2896,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2892,7 +2913,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2909,7 +2930,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2926,7 +2947,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2943,7 +2964,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="29"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2960,7 +2981,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2977,7 +2998,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="29"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2994,7 +3015,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="29"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3011,7 +3032,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3028,7 +3049,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3045,7 +3066,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3062,7 +3083,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3079,7 +3100,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="29"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3096,7 +3117,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="29"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3113,7 +3134,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="29"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3130,7 +3151,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="29"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3147,7 +3168,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="29"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3164,7 +3185,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="29"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3181,7 +3202,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="29"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3198,7 +3219,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="29"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3215,7 +3236,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3232,7 +3253,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="29"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3249,7 +3270,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="29"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3266,7 +3287,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="29"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3283,7 +3304,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="29"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3300,7 +3321,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="29"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3317,7 +3338,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3334,7 +3355,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3351,7 +3372,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="29"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3368,7 +3389,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="29"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3385,7 +3406,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="29"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3402,7 +3423,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="29"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3419,7 +3440,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3436,7 +3457,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="29"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3453,7 +3474,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3470,7 +3491,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="29"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3487,7 +3508,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="29"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3504,7 +3525,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="29"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3521,7 +3542,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="29"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3538,7 +3559,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="29"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3555,7 +3576,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="29"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3572,7 +3593,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="29"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3589,7 +3610,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="29"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3606,7 +3627,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="29"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3623,7 +3644,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="29"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3640,7 +3661,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="29"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3657,7 +3678,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="29"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3674,7 +3695,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="29"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3691,7 +3712,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="29"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3708,7 +3729,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3725,7 +3746,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="29"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3742,7 +3763,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="29"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3759,7 +3780,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="29"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3776,7 +3797,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="29"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3793,7 +3814,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3810,7 +3831,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="29"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3827,7 +3848,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="29"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3844,7 +3865,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3861,7 +3882,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="29"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3878,7 +3899,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="29"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3895,7 +3916,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="29"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3912,7 +3933,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="29"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3929,7 +3950,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3946,7 +3967,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="29"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3963,7 +3984,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3980,7 +4001,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="29"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3997,7 +4018,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4014,7 +4035,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="29"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4031,7 +4052,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="29"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4048,7 +4069,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="29"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4065,7 +4086,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="29"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4082,7 +4103,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="29"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4099,7 +4120,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="29"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4116,7 +4137,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="29"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4133,7 +4154,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="29"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4150,7 +4171,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="29"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4167,7 +4188,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="29"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4184,7 +4205,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="29"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4201,7 +4222,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="29"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4218,7 +4239,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="29"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4235,7 +4256,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="29"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4252,7 +4273,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="29"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4269,7 +4290,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="29"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4286,7 +4307,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="29"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4303,7 +4324,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="29"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4320,7 +4341,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4337,7 +4358,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="29"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4354,7 +4375,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="29"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4371,7 +4392,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="29"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4388,7 +4409,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="29"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4405,7 +4426,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="29"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4422,7 +4443,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="29"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4439,7 +4460,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="29"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4456,7 +4477,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="29"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4473,7 +4494,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="29"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4490,7 +4511,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="29"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4507,7 +4528,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="29"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4524,7 +4545,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="29"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4541,7 +4562,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="29"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4558,7 +4579,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="29"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4575,7 +4596,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="29"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4592,7 +4613,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="29"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4609,7 +4630,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="29"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4626,7 +4647,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="29"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4643,7 +4664,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="29"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4660,7 +4681,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="29"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4677,7 +4698,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="29"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4694,7 +4715,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="29"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4711,7 +4732,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="29"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4728,7 +4749,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="29"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4745,7 +4766,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="29"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4762,7 +4783,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="29"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4779,7 +4800,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="29"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4796,7 +4817,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="29"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4813,7 +4834,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="29"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4830,7 +4851,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="29"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4847,7 +4868,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="29"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4864,7 +4885,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="29"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4881,7 +4902,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="29"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4898,7 +4919,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="29"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4915,7 +4936,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="29"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4932,7 +4953,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="29"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4949,7 +4970,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="29"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4966,7 +4987,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="29"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4983,7 +5004,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="29"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5000,7 +5021,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="29"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5017,7 +5038,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="29"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5034,7 +5055,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="29"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5051,7 +5072,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="29"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5068,7 +5089,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="29"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5085,7 +5106,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="29"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5102,7 +5123,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="29"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5119,7 +5140,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="29"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5136,7 +5157,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="29"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5153,7 +5174,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="29"/>
+      <c r="B163" s="30"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5170,7 +5191,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="29"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5187,7 +5208,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="29"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5204,7 +5225,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="29"/>
+      <c r="B166" s="30"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5221,7 +5242,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="29"/>
+      <c r="B167" s="30"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5238,7 +5259,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="29"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5255,7 +5276,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="29"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5272,7 +5293,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="29"/>
+      <c r="B170" s="30"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5289,7 +5310,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="29"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5306,7 +5327,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="29"/>
+      <c r="B172" s="30"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5323,7 +5344,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="29"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5340,7 +5361,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="29"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5357,7 +5378,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="29"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5374,7 +5395,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="29"/>
+      <c r="B176" s="30"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5391,7 +5412,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="29"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5408,7 +5429,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="29"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5425,7 +5446,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="29"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5442,7 +5463,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="29"/>
+      <c r="B180" s="30"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5459,7 +5480,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="29"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5476,7 +5497,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="29"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5493,7 +5514,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="29"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5510,7 +5531,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="29"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5527,7 +5548,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="29"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5544,7 +5565,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="29"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5561,7 +5582,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="29"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5578,7 +5599,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="29"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5595,7 +5616,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="29"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5612,7 +5633,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="29"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5629,7 +5650,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="29"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5646,7 +5667,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="29"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5663,7 +5684,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="29"/>
+      <c r="B193" s="30"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5680,7 +5701,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="29"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5697,7 +5718,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="29"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5714,7 +5735,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="29"/>
+      <c r="B196" s="30"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5731,7 +5752,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="29"/>
+      <c r="B197" s="30"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5748,7 +5769,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="29"/>
+      <c r="B198" s="30"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5765,7 +5786,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="29"/>
+      <c r="B199" s="30"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5782,7 +5803,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="29"/>
+      <c r="B200" s="30"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5799,7 +5820,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="29"/>
+      <c r="B201" s="30"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5816,7 +5837,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="29"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5833,7 +5854,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="29"/>
+      <c r="B203" s="30"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5850,7 +5871,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="30"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5867,7 +5888,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="29"/>
+      <c r="B205" s="30"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5884,7 +5905,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="29"/>
+      <c r="B206" s="30"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5901,7 +5922,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="29"/>
+      <c r="B207" s="30"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5918,7 +5939,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="29"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5935,7 +5956,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="29"/>
+      <c r="B209" s="30"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5952,7 +5973,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="30"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5969,7 +5990,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="29"/>
+      <c r="B211" s="30"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5986,7 +6007,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="29"/>
+      <c r="B212" s="30"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6003,7 +6024,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="29"/>
+      <c r="B213" s="30"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6020,7 +6041,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="29"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6037,7 +6058,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="29"/>
+      <c r="B215" s="30"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6054,7 +6075,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="29"/>
+      <c r="B216" s="30"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6071,7 +6092,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="29"/>
+      <c r="B217" s="30"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6088,7 +6109,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="29"/>
+      <c r="B218" s="30"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6105,7 +6126,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="29"/>
+      <c r="B219" s="30"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6122,7 +6143,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="29"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6139,7 +6160,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="29"/>
+      <c r="B221" s="30"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6156,7 +6177,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="29"/>
+      <c r="B222" s="30"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6173,7 +6194,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="29"/>
+      <c r="B223" s="30"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6190,7 +6211,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="29"/>
+      <c r="B224" s="30"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6207,7 +6228,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="29"/>
+      <c r="B225" s="30"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6224,7 +6245,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="29"/>
+      <c r="B226" s="30"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6241,7 +6262,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="29"/>
+      <c r="B227" s="30"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6258,7 +6279,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="29"/>
+      <c r="B228" s="30"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6275,7 +6296,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="29"/>
+      <c r="B229" s="30"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6292,7 +6313,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="29"/>
+      <c r="B230" s="30"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6309,7 +6330,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="29"/>
+      <c r="B231" s="30"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6326,7 +6347,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="29"/>
+      <c r="B232" s="30"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6343,7 +6364,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="29"/>
+      <c r="B233" s="30"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6360,7 +6381,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="29"/>
+      <c r="B234" s="30"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6377,7 +6398,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="29"/>
+      <c r="B235" s="30"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6394,7 +6415,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="29"/>
+      <c r="B236" s="30"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6411,7 +6432,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="29"/>
+      <c r="B237" s="30"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6428,7 +6449,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="29"/>
+      <c r="B238" s="30"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6445,7 +6466,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="29"/>
+      <c r="B239" s="30"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6462,7 +6483,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="29"/>
+      <c r="B240" s="30"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6479,7 +6500,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="29"/>
+      <c r="B241" s="30"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6496,7 +6517,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="29"/>
+      <c r="B242" s="30"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6513,7 +6534,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="29"/>
+      <c r="B243" s="30"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6530,7 +6551,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="29"/>
+      <c r="B244" s="30"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6547,7 +6568,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="29"/>
+      <c r="B245" s="30"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6564,7 +6585,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="29"/>
+      <c r="B246" s="30"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6581,7 +6602,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="29"/>
+      <c r="B247" s="30"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6598,7 +6619,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="29"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6615,7 +6636,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="29"/>
+      <c r="B249" s="30"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6632,7 +6653,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="29"/>
+      <c r="B250" s="30"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6649,7 +6670,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="29"/>
+      <c r="B251" s="30"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6666,7 +6687,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="29"/>
+      <c r="B252" s="30"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6683,7 +6704,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="29"/>
+      <c r="B253" s="30"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6700,7 +6721,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="29"/>
+      <c r="B254" s="30"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6717,7 +6738,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="29"/>
+      <c r="B255" s="30"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6734,7 +6755,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="29"/>
+      <c r="B256" s="30"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6751,7 +6772,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="29"/>
+      <c r="B257" s="30"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6768,7 +6789,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="29"/>
+      <c r="B258" s="30"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6785,7 +6806,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="29"/>
+      <c r="B259" s="30"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6802,7 +6823,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="29"/>
+      <c r="B260" s="30"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6819,7 +6840,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="29"/>
+      <c r="B261" s="30"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6836,7 +6857,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="29"/>
+      <c r="B262" s="30"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6853,7 +6874,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="29"/>
+      <c r="B263" s="30"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6870,7 +6891,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="29"/>
+      <c r="B264" s="30"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6887,7 +6908,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="29"/>
+      <c r="B265" s="30"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6904,7 +6925,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="29"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6921,7 +6942,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="29"/>
+      <c r="B267" s="30"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6938,7 +6959,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="29"/>
+      <c r="B268" s="30"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6955,7 +6976,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="29"/>
+      <c r="B269" s="30"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6972,7 +6993,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="29"/>
+      <c r="B270" s="30"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -6989,7 +7010,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="29"/>
+      <c r="B271" s="30"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7006,7 +7027,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="29"/>
+      <c r="B272" s="30"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7023,7 +7044,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="29"/>
+      <c r="B273" s="30"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7040,7 +7061,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="29"/>
+      <c r="B274" s="30"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7057,7 +7078,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="29"/>
+      <c r="B275" s="30"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7074,7 +7095,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="29"/>
+      <c r="B276" s="30"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7091,7 +7112,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="29"/>
+      <c r="B277" s="30"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7108,7 +7129,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="29"/>
+      <c r="B278" s="30"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7125,7 +7146,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="29"/>
+      <c r="B279" s="30"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7142,7 +7163,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="29"/>
+      <c r="B280" s="30"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7159,7 +7180,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="29"/>
+      <c r="B281" s="30"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7176,7 +7197,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="29"/>
+      <c r="B282" s="30"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7193,7 +7214,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="29"/>
+      <c r="B283" s="30"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7210,7 +7231,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="29"/>
+      <c r="B284" s="30"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7227,7 +7248,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="29"/>
+      <c r="B285" s="30"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7244,7 +7265,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="29"/>
+      <c r="B286" s="30"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7261,7 +7282,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="29"/>
+      <c r="B287" s="30"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7278,7 +7299,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="29"/>
+      <c r="B288" s="30"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7295,7 +7316,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="29"/>
+      <c r="B289" s="30"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7312,7 +7333,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="29"/>
+      <c r="B290" s="30"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7329,7 +7350,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="29"/>
+      <c r="B291" s="30"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7346,7 +7367,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="29"/>
+      <c r="B292" s="30"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7363,7 +7384,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="29"/>
+      <c r="B293" s="30"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7380,7 +7401,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="29"/>
+      <c r="B294" s="30"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7397,7 +7418,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="29"/>
+      <c r="B295" s="30"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7414,7 +7435,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="29"/>
+      <c r="B296" s="30"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7431,7 +7452,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="29"/>
+      <c r="B297" s="30"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7448,7 +7469,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="29"/>
+      <c r="B298" s="30"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7465,7 +7486,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="29"/>
+      <c r="B299" s="30"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7482,7 +7503,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="29"/>
+      <c r="B300" s="30"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7520,8 +7541,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7602,29 +7623,53 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="28.8" spans="1:7">
       <c r="A4" s="22"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="19">
+        <v>43218</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="22"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="19">
+        <v>43217</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -7633,7 +7678,7 @@
       <c r="A7" s="22"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7642,7 +7687,7 @@
       <c r="A8" s="22"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7651,7 +7696,7 @@
       <c r="A9" s="22"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7660,7 +7705,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7669,7 +7714,7 @@
       <c r="A11" s="22"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7678,43 +7723,43 @@
       <c r="A12" s="22"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" hidden="1" spans="1:7">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="17"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="22"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="18"/>
@@ -7723,7 +7768,7 @@
       <c r="A17" s="22"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7732,7 +7777,7 @@
       <c r="A18" s="22"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7741,7 +7786,7 @@
       <c r="A19" s="22"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7750,7 +7795,7 @@
       <c r="A20" s="22"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7759,7 +7804,7 @@
       <c r="A21" s="22"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -7767,8 +7812,8 @@
     <row r="22" spans="1:7">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -7776,8 +7821,8 @@
     <row r="23" spans="1:7">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -7785,8 +7830,8 @@
     <row r="24" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7794,35 +7839,35 @@
     <row r="25" spans="1:7">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="24"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="17"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="18"/>
@@ -7831,7 +7876,7 @@
       <c r="A29" s="22"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7840,7 +7885,7 @@
       <c r="A30" s="22"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -7848,8 +7893,8 @@
     <row r="31" spans="1:7">
       <c r="A31" s="22"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7857,8 +7902,8 @@
     <row r="32" spans="1:7">
       <c r="A32" s="22"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7866,8 +7911,8 @@
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -7876,7 +7921,7 @@
       <c r="A34" s="22"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="23"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -7885,7 +7930,7 @@
       <c r="A35" s="22"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -7893,8 +7938,8 @@
     <row r="36" spans="1:7">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -7902,8 +7947,8 @@
     <row r="37" spans="1:7">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -7911,8 +7956,8 @@
     <row r="38" spans="1:7">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -7920,8 +7965,8 @@
     <row r="39" spans="1:7">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -7929,17 +7974,17 @@
     <row r="40" spans="1:7">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7947,8 +7992,8 @@
     <row r="42" ht="15.6" spans="1:7">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="18"/>
@@ -7957,7 +8002,7 @@
       <c r="A43" s="22"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="27"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="10"/>
@@ -7966,7 +8011,7 @@
       <c r="A44" s="22"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="23"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -7975,7 +8020,7 @@
       <c r="A45" s="22"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -7984,7 +8029,7 @@
       <c r="A46" s="22"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="23"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -7993,7 +8038,7 @@
       <c r="A47" s="22"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="23"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -8002,7 +8047,7 @@
       <c r="A48" s="22"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="23"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -8011,7 +8056,7 @@
       <c r="A49" s="22"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -8019,8 +8064,8 @@
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="23"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -8028,8 +8073,8 @@
     <row r="51" spans="1:7">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="23"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -8037,8 +8082,8 @@
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="23"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -8046,8 +8091,8 @@
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -8055,8 +8100,8 @@
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -8064,17 +8109,17 @@
     <row r="55" spans="1:7">
       <c r="A55" s="22"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="24"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="23"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -8082,8 +8127,8 @@
     <row r="57" ht="15.6" spans="1:7">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="27"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="18"/>
@@ -8092,7 +8137,7 @@
       <c r="A58" s="22"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="27"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="10"/>
@@ -8101,7 +8146,7 @@
       <c r="A59" s="22"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
-      <c r="D59" s="27"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="10"/>
@@ -8110,7 +8155,7 @@
       <c r="A60" s="22"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="27"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="8"/>
@@ -8119,7 +8164,7 @@
       <c r="A61" s="22"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -8128,7 +8173,7 @@
       <c r="A62" s="22"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="23"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -8137,7 +8182,7 @@
       <c r="A63" s="22"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="23"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -8146,7 +8191,7 @@
       <c r="A64" s="22"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="23"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -8155,7 +8200,7 @@
       <c r="A65" s="22"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
-      <c r="D65" s="23"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -8164,7 +8209,7 @@
       <c r="A66" s="22"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="23"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -8173,16 +8218,16 @@
       <c r="A67" s="22"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
-      <c r="D67" s="23"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="24"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="23"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -8190,8 +8235,8 @@
     <row r="69" ht="15.6" spans="1:7">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="18"/>
@@ -8200,7 +8245,7 @@
       <c r="A70" s="22"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="27"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="10"/>
@@ -8209,7 +8254,7 @@
       <c r="A71" s="22"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
-      <c r="D71" s="27"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="10"/>
@@ -8218,7 +8263,7 @@
       <c r="A72" s="22"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="27"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="8"/>
@@ -8227,7 +8272,7 @@
       <c r="A73" s="22"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
-      <c r="D73" s="23"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -8236,7 +8281,7 @@
       <c r="A74" s="22"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="23"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -8245,7 +8290,7 @@
       <c r="A75" s="22"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
-      <c r="D75" s="23"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -8254,7 +8299,7 @@
       <c r="A76" s="22"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="23"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -8263,7 +8308,7 @@
       <c r="A77" s="22"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
-      <c r="D77" s="23"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -8272,7 +8317,7 @@
       <c r="A78" s="22"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="23"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -8281,16 +8326,16 @@
       <c r="A79" s="22"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="23"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="24"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="23"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -8299,7 +8344,7 @@
       <c r="A81" s="22"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="27"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="10"/>
@@ -8308,7 +8353,7 @@
       <c r="A82" s="22"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="27"/>
+      <c r="D82" s="28"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="8"/>
@@ -8317,7 +8362,7 @@
       <c r="A83" s="22"/>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
-      <c r="D83" s="23"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -8326,7 +8371,7 @@
       <c r="A84" s="22"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="23"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8335,7 +8380,7 @@
       <c r="A85" s="22"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
-      <c r="D85" s="23"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8344,7 +8389,7 @@
       <c r="A86" s="22"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="23"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8353,7 +8398,7 @@
       <c r="A87" s="22"/>
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
-      <c r="D87" s="23"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8362,7 +8407,7 @@
       <c r="A88" s="22"/>
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="23"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8371,16 +8416,16 @@
       <c r="A89" s="22"/>
       <c r="B89" s="18"/>
       <c r="C89" s="19"/>
-      <c r="D89" s="23"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="24"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="23"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8415,7 +8460,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8433,13 +8478,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8450,10 +8495,10 @@
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/周数据/《个人上线率统计表》-翁晨.xlsx
+++ b/周数据/《个人上线率统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -133,6 +133,18 @@
     <t>朱老板</t>
   </si>
   <si>
+    <t>茉莉烘焙</t>
+  </si>
+  <si>
+    <t>连云港</t>
+  </si>
+  <si>
+    <t>万老板</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -169,15 +181,6 @@
     <t>沈芳芳</t>
   </si>
   <si>
-    <t xml:space="preserve">   茉莉烘焙坊</t>
-  </si>
-  <si>
-    <t>由于一直未在集团下新建店铺，无法安装</t>
-  </si>
-  <si>
-    <t>SAAS</t>
-  </si>
-  <si>
     <t>俺村小院</t>
   </si>
   <si>
@@ -199,7 +202,7 @@
     <t>14~15</t>
   </si>
   <si>
-    <t>前往常熟店更换内存条</t>
+    <t>前往常熟沙县小吃店更换内存条</t>
   </si>
 </sst>
 </file>
@@ -289,8 +292,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +330,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,23 +384,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,9 +392,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,38 +413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -411,16 +421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +493,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +541,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,49 +613,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,97 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,16 +1057,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,33 +1106,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,19 +1148,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,10 +1161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,137 +1173,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,9 +1372,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1862,8 +1862,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
@@ -1876,419 +1876,455 @@
     <col min="7" max="7" width="15.4537037037037" style="11" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.9074074074074" style="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.9074074074074" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.9074074074074" style="41" customWidth="1"/>
+    <col min="10" max="10" width="17.9074074074074" style="40" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.9074074074074" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.6296296296296" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.35" spans="1:13">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="64"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="63"/>
+    </row>
+    <row r="2" ht="15.15" spans="1:13">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>4</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="50">
         <v>17</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>6</v>
       </c>
-      <c r="D3" s="53">
-        <v>2</v>
-      </c>
-      <c r="E3" s="53">
-        <v>4</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="70">
-        <v>0</v>
-      </c>
-      <c r="J3" s="71">
-        <v>0</v>
-      </c>
-      <c r="K3" s="72">
+      <c r="D3" s="52">
+        <v>3</v>
+      </c>
+      <c r="E3" s="52">
+        <v>3</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="69">
+        <v>1</v>
+      </c>
+      <c r="J3" s="70">
+        <v>0.16</v>
+      </c>
+      <c r="K3" s="71">
         <v>6</v>
       </c>
-      <c r="L3" s="73">
-        <v>2</v>
-      </c>
-      <c r="M3" s="74">
-        <v>0.33</v>
+      <c r="L3" s="72">
+        <v>3</v>
+      </c>
+      <c r="M3" s="73">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" ht="15.15" spans="1:13">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" ht="0.75" customHeight="1" spans="1:10">
-      <c r="A9" s="50">
+      <c r="A9" s="49">
         <v>5</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50">
+        <v>18</v>
+      </c>
+      <c r="C10" s="51">
+        <v>6</v>
+      </c>
+      <c r="D10" s="52">
+        <v>3</v>
+      </c>
+      <c r="E10" s="52">
+        <v>3</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="69">
+        <v>1</v>
+      </c>
+      <c r="J10" s="70">
+        <v>0.16</v>
+      </c>
+      <c r="K10" s="71">
+        <v>6</v>
+      </c>
+      <c r="L10" s="72">
+        <v>3</v>
+      </c>
+      <c r="M10" s="73">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50">
+        <v>19</v>
+      </c>
+      <c r="C11" s="51">
+        <v>6</v>
+      </c>
+      <c r="D11" s="52">
+        <v>3</v>
+      </c>
+      <c r="E11" s="52">
+        <v>3</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="69">
+        <v>1</v>
+      </c>
+      <c r="J11" s="70">
+        <v>0.16</v>
+      </c>
+      <c r="K11" s="71">
+        <v>6</v>
+      </c>
+      <c r="L11" s="72">
+        <v>3</v>
+      </c>
+      <c r="M11" s="73">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="56"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="62">
+      <c r="A15" s="61">
         <v>6</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" ht="15.15" spans="1:13">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="62">
+      <c r="A20" s="61">
         <v>7</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="74"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="74"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="74"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2309,8 +2345,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.72222222222222" defaultRowHeight="14.4"/>
@@ -2328,61 +2364,61 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="28.8" spans="1:15">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="30" customFormat="1" ht="28.8" spans="1:15">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="36"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -2394,29 +2430,29 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="36"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="1"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="36"/>
+      <c r="N3" s="35"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
-      <c r="B4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="36"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -2428,7 +2464,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2445,7 +2481,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -2462,7 +2498,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -2479,7 +2515,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="1"/>
@@ -2496,7 +2532,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="21"/>
@@ -2513,7 +2549,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2530,7 +2566,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="21"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2542,12 +2578,12 @@
       <c r="K11" s="1"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="40"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2559,12 +2595,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="40"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="21"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2581,7 +2617,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1"/>
       <c r="E14" s="21"/>
@@ -2598,7 +2634,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="21"/>
       <c r="D15" s="1"/>
       <c r="E15" s="21"/>
@@ -2615,7 +2651,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1"/>
       <c r="E16" s="21"/>
@@ -2634,7 +2670,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>43199</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -2649,7 +2685,7 @@
       <c r="F17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>76152875</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2681,7 +2717,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>43217</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2696,7 +2732,7 @@
       <c r="F18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>76157761</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2725,25 +2761,55 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29">
+        <v>43221</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1">
+        <v>76165760</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1">
+        <v>15195247772</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="1">
+        <v>15950705999</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2760,7 +2826,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2777,7 +2843,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2794,7 +2860,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2811,7 +2877,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2828,7 +2894,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2845,7 +2911,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="30"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2862,7 +2928,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2879,7 +2945,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2896,7 +2962,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2913,7 +2979,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2930,7 +2996,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2947,7 +3013,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2964,7 +3030,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2981,7 +3047,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2998,7 +3064,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3015,7 +3081,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="30"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3032,7 +3098,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3049,7 +3115,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3066,7 +3132,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3083,7 +3149,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3100,7 +3166,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3117,7 +3183,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3134,7 +3200,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3151,7 +3217,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3168,7 +3234,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3185,7 +3251,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3202,7 +3268,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3219,7 +3285,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3236,7 +3302,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3253,7 +3319,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3270,7 +3336,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3287,7 +3353,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3304,7 +3370,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3321,7 +3387,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3338,7 +3404,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3355,7 +3421,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3372,7 +3438,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3389,7 +3455,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3406,7 +3472,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3423,7 +3489,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3440,7 +3506,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3457,7 +3523,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3474,7 +3540,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3491,7 +3557,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3508,7 +3574,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3525,7 +3591,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3542,7 +3608,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3559,7 +3625,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3576,7 +3642,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="30"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3593,7 +3659,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="30"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3610,7 +3676,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3627,7 +3693,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3644,7 +3710,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="30"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3661,7 +3727,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3678,7 +3744,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="30"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3695,7 +3761,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3712,7 +3778,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="30"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3729,7 +3795,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="30"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3746,7 +3812,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3763,7 +3829,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3780,7 +3846,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3797,7 +3863,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3814,7 +3880,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3831,7 +3897,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3848,7 +3914,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3865,7 +3931,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3882,7 +3948,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3899,7 +3965,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3916,7 +3982,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3933,7 +3999,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3950,7 +4016,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="30"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3967,7 +4033,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="30"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3984,7 +4050,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="30"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4001,7 +4067,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="30"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4018,7 +4084,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="30"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4035,7 +4101,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="30"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4052,7 +4118,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="30"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4069,7 +4135,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="30"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4086,7 +4152,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="30"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4103,7 +4169,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="30"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4120,7 +4186,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="30"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4137,7 +4203,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="30"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4154,7 +4220,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="30"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4171,7 +4237,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="30"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4188,7 +4254,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="30"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4205,7 +4271,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="30"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4222,7 +4288,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="30"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4239,7 +4305,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="30"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4256,7 +4322,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="30"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4273,7 +4339,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="30"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4290,7 +4356,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="30"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4307,7 +4373,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="30"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4324,7 +4390,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="30"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4341,7 +4407,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="30"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4358,7 +4424,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="30"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4375,7 +4441,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="30"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4392,7 +4458,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="30"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4409,7 +4475,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="30"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4426,7 +4492,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="30"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4443,7 +4509,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="30"/>
+      <c r="B120" s="29"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4460,7 +4526,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="30"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4477,7 +4543,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="30"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4494,7 +4560,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="30"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4511,7 +4577,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="30"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4528,7 +4594,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="30"/>
+      <c r="B125" s="29"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4545,7 +4611,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="30"/>
+      <c r="B126" s="29"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4562,7 +4628,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="30"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4579,7 +4645,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="30"/>
+      <c r="B128" s="29"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4596,7 +4662,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="30"/>
+      <c r="B129" s="29"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4613,7 +4679,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="30"/>
+      <c r="B130" s="29"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4630,7 +4696,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="30"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4647,7 +4713,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="30"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4664,7 +4730,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="30"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4681,7 +4747,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="30"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4698,7 +4764,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="30"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4715,7 +4781,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="30"/>
+      <c r="B136" s="29"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4732,7 +4798,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="30"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4749,7 +4815,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="30"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4766,7 +4832,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="30"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4783,7 +4849,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="30"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4800,7 +4866,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="30"/>
+      <c r="B141" s="29"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4817,7 +4883,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="30"/>
+      <c r="B142" s="29"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4834,7 +4900,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="30"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4851,7 +4917,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="30"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4868,7 +4934,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="30"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4885,7 +4951,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="30"/>
+      <c r="B146" s="29"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4902,7 +4968,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="30"/>
+      <c r="B147" s="29"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4919,7 +4985,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="30"/>
+      <c r="B148" s="29"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4936,7 +5002,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="30"/>
+      <c r="B149" s="29"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4953,7 +5019,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="30"/>
+      <c r="B150" s="29"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4970,7 +5036,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="30"/>
+      <c r="B151" s="29"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4987,7 +5053,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="30"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5004,7 +5070,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="30"/>
+      <c r="B153" s="29"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5021,7 +5087,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="30"/>
+      <c r="B154" s="29"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5038,7 +5104,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="30"/>
+      <c r="B155" s="29"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5055,7 +5121,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="30"/>
+      <c r="B156" s="29"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5072,7 +5138,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="30"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5089,7 +5155,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="30"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5106,7 +5172,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="30"/>
+      <c r="B159" s="29"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5123,7 +5189,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="30"/>
+      <c r="B160" s="29"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5140,7 +5206,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="30"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5157,7 +5223,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="30"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5174,7 +5240,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="30"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5191,7 +5257,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="30"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5208,7 +5274,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="30"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5225,7 +5291,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="30"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5242,7 +5308,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="30"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5259,7 +5325,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="30"/>
+      <c r="B168" s="29"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5276,7 +5342,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="30"/>
+      <c r="B169" s="29"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5293,7 +5359,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="30"/>
+      <c r="B170" s="29"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5310,7 +5376,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="30"/>
+      <c r="B171" s="29"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5327,7 +5393,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="30"/>
+      <c r="B172" s="29"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5344,7 +5410,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="30"/>
+      <c r="B173" s="29"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5361,7 +5427,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="30"/>
+      <c r="B174" s="29"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5378,7 +5444,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="30"/>
+      <c r="B175" s="29"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5395,7 +5461,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="30"/>
+      <c r="B176" s="29"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5412,7 +5478,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="30"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5429,7 +5495,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="30"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5446,7 +5512,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="30"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5463,7 +5529,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="30"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5480,7 +5546,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="30"/>
+      <c r="B181" s="29"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5497,7 +5563,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="30"/>
+      <c r="B182" s="29"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5514,7 +5580,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="30"/>
+      <c r="B183" s="29"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5531,7 +5597,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="30"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5548,7 +5614,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="30"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5565,7 +5631,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="30"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5582,7 +5648,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="30"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5599,7 +5665,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="30"/>
+      <c r="B188" s="29"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5616,7 +5682,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="30"/>
+      <c r="B189" s="29"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5633,7 +5699,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="30"/>
+      <c r="B190" s="29"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5650,7 +5716,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="30"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5667,7 +5733,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="30"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5684,7 +5750,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="30"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5701,7 +5767,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="30"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5718,7 +5784,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="30"/>
+      <c r="B195" s="29"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5735,7 +5801,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="30"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5752,7 +5818,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="30"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5769,7 +5835,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="30"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5786,7 +5852,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="30"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5803,7 +5869,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="30"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5820,7 +5886,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="30"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5837,7 +5903,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="30"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5854,7 +5920,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="30"/>
+      <c r="B203" s="29"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5871,7 +5937,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="30"/>
+      <c r="B204" s="29"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5888,7 +5954,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="30"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5905,7 +5971,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="30"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5922,7 +5988,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="30"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5939,7 +6005,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="30"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5956,7 +6022,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="30"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5973,7 +6039,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="30"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5990,7 +6056,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="30"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6007,7 +6073,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="30"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6024,7 +6090,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="30"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6041,7 +6107,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="30"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6058,7 +6124,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="30"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6075,7 +6141,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="30"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6092,7 +6158,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="30"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6109,7 +6175,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="30"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6126,7 +6192,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="30"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6143,7 +6209,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="30"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6160,7 +6226,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="30"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6177,7 +6243,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="30"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6194,7 +6260,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="30"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6211,7 +6277,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="30"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6228,7 +6294,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="30"/>
+      <c r="B225" s="29"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6245,7 +6311,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="30"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6262,7 +6328,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="30"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6279,7 +6345,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="30"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6296,7 +6362,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="30"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6313,7 +6379,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="30"/>
+      <c r="B230" s="29"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6330,7 +6396,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="30"/>
+      <c r="B231" s="29"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6347,7 +6413,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="30"/>
+      <c r="B232" s="29"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6364,7 +6430,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="30"/>
+      <c r="B233" s="29"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6381,7 +6447,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="30"/>
+      <c r="B234" s="29"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6398,7 +6464,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="30"/>
+      <c r="B235" s="29"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6415,7 +6481,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="30"/>
+      <c r="B236" s="29"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6432,7 +6498,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="30"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6449,7 +6515,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="30"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6466,7 +6532,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="30"/>
+      <c r="B239" s="29"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6483,7 +6549,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="30"/>
+      <c r="B240" s="29"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6500,7 +6566,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="30"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6517,7 +6583,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="30"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6534,7 +6600,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="30"/>
+      <c r="B243" s="29"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6551,7 +6617,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="30"/>
+      <c r="B244" s="29"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6568,7 +6634,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="30"/>
+      <c r="B245" s="29"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6585,7 +6651,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="30"/>
+      <c r="B246" s="29"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6602,7 +6668,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="30"/>
+      <c r="B247" s="29"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6619,7 +6685,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="30"/>
+      <c r="B248" s="29"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6636,7 +6702,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="30"/>
+      <c r="B249" s="29"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6653,7 +6719,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="30"/>
+      <c r="B250" s="29"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6670,7 +6736,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="30"/>
+      <c r="B251" s="29"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6687,7 +6753,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="30"/>
+      <c r="B252" s="29"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6704,7 +6770,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="30"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6721,7 +6787,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="30"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6738,7 +6804,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="30"/>
+      <c r="B255" s="29"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6755,7 +6821,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="30"/>
+      <c r="B256" s="29"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6772,7 +6838,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="30"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6789,7 +6855,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="30"/>
+      <c r="B258" s="29"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6806,7 +6872,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="30"/>
+      <c r="B259" s="29"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6823,7 +6889,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="30"/>
+      <c r="B260" s="29"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6840,7 +6906,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="30"/>
+      <c r="B261" s="29"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6857,7 +6923,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="30"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6874,7 +6940,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="30"/>
+      <c r="B263" s="29"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6891,7 +6957,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="30"/>
+      <c r="B264" s="29"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6908,7 +6974,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="30"/>
+      <c r="B265" s="29"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6925,7 +6991,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="30"/>
+      <c r="B266" s="29"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6942,7 +7008,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="30"/>
+      <c r="B267" s="29"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6959,7 +7025,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="30"/>
+      <c r="B268" s="29"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6976,7 +7042,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="30"/>
+      <c r="B269" s="29"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6993,7 +7059,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="30"/>
+      <c r="B270" s="29"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7010,7 +7076,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="30"/>
+      <c r="B271" s="29"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7027,7 +7093,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="30"/>
+      <c r="B272" s="29"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7044,7 +7110,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="30"/>
+      <c r="B273" s="29"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7061,7 +7127,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="30"/>
+      <c r="B274" s="29"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7078,7 +7144,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="30"/>
+      <c r="B275" s="29"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7095,7 +7161,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="30"/>
+      <c r="B276" s="29"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7112,7 +7178,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="30"/>
+      <c r="B277" s="29"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7129,7 +7195,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="30"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7146,7 +7212,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="30"/>
+      <c r="B279" s="29"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7163,7 +7229,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="30"/>
+      <c r="B280" s="29"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7180,7 +7246,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="30"/>
+      <c r="B281" s="29"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7197,7 +7263,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="30"/>
+      <c r="B282" s="29"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7214,7 +7280,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="30"/>
+      <c r="B283" s="29"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7231,7 +7297,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="30"/>
+      <c r="B284" s="29"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7248,7 +7314,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="30"/>
+      <c r="B285" s="29"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7265,7 +7331,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="30"/>
+      <c r="B286" s="29"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7282,7 +7348,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="30"/>
+      <c r="B287" s="29"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7299,7 +7365,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="30"/>
+      <c r="B288" s="29"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7316,7 +7382,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="30"/>
+      <c r="B289" s="29"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7333,7 +7399,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="30"/>
+      <c r="B290" s="29"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7350,7 +7416,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="30"/>
+      <c r="B291" s="29"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7367,7 +7433,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="30"/>
+      <c r="B292" s="29"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7384,7 +7450,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="30"/>
+      <c r="B293" s="29"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7401,7 +7467,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="30"/>
+      <c r="B294" s="29"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7418,7 +7484,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="30"/>
+      <c r="B295" s="29"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7435,7 +7501,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="30"/>
+      <c r="B296" s="29"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7452,7 +7518,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="30"/>
+      <c r="B297" s="29"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7469,7 +7535,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="30"/>
+      <c r="B298" s="29"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7486,7 +7552,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="30"/>
+      <c r="B299" s="29"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7503,7 +7569,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="30"/>
+      <c r="B300" s="29"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7542,7 +7608,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7564,19 +7630,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7584,92 +7650,74 @@
         <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="19">
         <v>43202</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
       <c r="B3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" s="19">
         <v>43213</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G3" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22"/>
+      <c r="B4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="19">
+        <v>43217</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="19">
-        <v>43218</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="22"/>
-      <c r="B5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="19">
-        <v>43217</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -7678,7 +7726,7 @@
       <c r="A7" s="22"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7687,7 +7735,7 @@
       <c r="A8" s="22"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7696,7 +7744,7 @@
       <c r="A9" s="22"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7705,7 +7753,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7714,7 +7762,7 @@
       <c r="A11" s="22"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7723,43 +7771,43 @@
       <c r="A12" s="22"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" hidden="1" spans="1:7">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="17"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="22"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="22"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="18"/>
@@ -7768,7 +7816,7 @@
       <c r="A17" s="22"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7777,7 +7825,7 @@
       <c r="A18" s="22"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7786,7 +7834,7 @@
       <c r="A19" s="22"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7795,7 +7843,7 @@
       <c r="A20" s="22"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7804,7 +7852,7 @@
       <c r="A21" s="22"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="24"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -7812,8 +7860,8 @@
     <row r="22" spans="1:7">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -7821,8 +7869,8 @@
     <row r="23" spans="1:7">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -7830,8 +7878,8 @@
     <row r="24" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7839,35 +7887,35 @@
     <row r="25" spans="1:7">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="17"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="18"/>
@@ -7876,7 +7924,7 @@
       <c r="A29" s="22"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7885,7 +7933,7 @@
       <c r="A30" s="22"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -7893,8 +7941,8 @@
     <row r="31" spans="1:7">
       <c r="A31" s="22"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7902,8 +7950,8 @@
     <row r="32" spans="1:7">
       <c r="A32" s="22"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7911,8 +7959,8 @@
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -7921,7 +7969,7 @@
       <c r="A34" s="22"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -7930,7 +7978,7 @@
       <c r="A35" s="22"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -7938,8 +7986,8 @@
     <row r="36" spans="1:7">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -7947,8 +7995,8 @@
     <row r="37" spans="1:7">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -7956,8 +8004,8 @@
     <row r="38" spans="1:7">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -7965,8 +8013,8 @@
     <row r="39" spans="1:7">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -7974,17 +8022,17 @@
     <row r="40" spans="1:7">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7992,8 +8040,8 @@
     <row r="42" ht="15.6" spans="1:7">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="18"/>
@@ -8002,7 +8050,7 @@
       <c r="A43" s="22"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="28"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="10"/>
@@ -8011,7 +8059,7 @@
       <c r="A44" s="22"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="24"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -8020,7 +8068,7 @@
       <c r="A45" s="22"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="24"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -8029,7 +8077,7 @@
       <c r="A46" s="22"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="24"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -8038,7 +8086,7 @@
       <c r="A47" s="22"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="24"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -8047,7 +8095,7 @@
       <c r="A48" s="22"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="24"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -8056,7 +8104,7 @@
       <c r="A49" s="22"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="24"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -8064,8 +8112,8 @@
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="24"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -8073,8 +8121,8 @@
     <row r="51" spans="1:7">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -8082,8 +8130,8 @@
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -8091,8 +8139,8 @@
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -8100,8 +8148,8 @@
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -8109,17 +8157,17 @@
     <row r="55" spans="1:7">
       <c r="A55" s="22"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="25"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="24"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -8127,8 +8175,8 @@
     <row r="57" ht="15.6" spans="1:7">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="18"/>
@@ -8137,7 +8185,7 @@
       <c r="A58" s="22"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="28"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="10"/>
@@ -8146,7 +8194,7 @@
       <c r="A59" s="22"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
-      <c r="D59" s="28"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="10"/>
@@ -8155,7 +8203,7 @@
       <c r="A60" s="22"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="28"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="8"/>
@@ -8164,7 +8212,7 @@
       <c r="A61" s="22"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="24"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -8173,7 +8221,7 @@
       <c r="A62" s="22"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="24"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -8182,7 +8230,7 @@
       <c r="A63" s="22"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="24"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -8191,7 +8239,7 @@
       <c r="A64" s="22"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="24"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -8200,7 +8248,7 @@
       <c r="A65" s="22"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
-      <c r="D65" s="24"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -8209,7 +8257,7 @@
       <c r="A66" s="22"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="24"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -8218,16 +8266,16 @@
       <c r="A67" s="22"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
-      <c r="D67" s="24"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="25"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="24"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -8235,8 +8283,8 @@
     <row r="69" ht="15.6" spans="1:7">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="18"/>
@@ -8245,7 +8293,7 @@
       <c r="A70" s="22"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="28"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="10"/>
@@ -8254,7 +8302,7 @@
       <c r="A71" s="22"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
-      <c r="D71" s="28"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="10"/>
@@ -8263,7 +8311,7 @@
       <c r="A72" s="22"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="28"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="8"/>
@@ -8272,7 +8320,7 @@
       <c r="A73" s="22"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
-      <c r="D73" s="24"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -8281,7 +8329,7 @@
       <c r="A74" s="22"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="24"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -8290,7 +8338,7 @@
       <c r="A75" s="22"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
-      <c r="D75" s="24"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -8299,7 +8347,7 @@
       <c r="A76" s="22"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="24"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -8308,7 +8356,7 @@
       <c r="A77" s="22"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
-      <c r="D77" s="24"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -8317,7 +8365,7 @@
       <c r="A78" s="22"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="24"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -8326,16 +8374,16 @@
       <c r="A79" s="22"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="24"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="25"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="24"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -8344,7 +8392,7 @@
       <c r="A81" s="22"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="28"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="10"/>
@@ -8353,7 +8401,7 @@
       <c r="A82" s="22"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="28"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="8"/>
@@ -8362,7 +8410,7 @@
       <c r="A83" s="22"/>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
-      <c r="D83" s="24"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -8371,7 +8419,7 @@
       <c r="A84" s="22"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="24"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8380,7 +8428,7 @@
       <c r="A85" s="22"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
-      <c r="D85" s="24"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8389,7 +8437,7 @@
       <c r="A86" s="22"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="24"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8398,7 +8446,7 @@
       <c r="A87" s="22"/>
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
-      <c r="D87" s="24"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8407,7 +8455,7 @@
       <c r="A88" s="22"/>
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="24"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8416,16 +8464,16 @@
       <c r="A89" s="22"/>
       <c r="B89" s="18"/>
       <c r="C89" s="19"/>
-      <c r="D89" s="24"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="25"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="24"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8442,10 +8490,10 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E2:E3 E6:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F2:F3 F6:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8460,7 +8508,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8478,13 +8526,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8495,10 +8543,10 @@
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/周数据/《个人上线率统计表》-翁晨.xlsx
+++ b/周数据/《个人上线率统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>KA项目未上线数</t>
-  </si>
-  <si>
-    <t>项目远程上线数</t>
-  </si>
-  <si>
-    <t>远程上线占比</t>
   </si>
   <si>
     <t>立项总计</t>
@@ -210,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="30">
@@ -292,14 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -309,35 +295,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -345,7 +310,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,14 +326,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -376,7 +341,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,22 +356,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,17 +386,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,8 +414,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,13 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +499,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,19 +583,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,55 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,67 +637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,80 +1040,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,7 +1063,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,10 +1149,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,137 +1161,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,9 +1412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,55 +1475,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1860,475 +1824,399 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.09259259259259" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.09259259259259" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.2685185185185" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.7222222222222" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.9074074074074" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.4537037037037" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.9074074074074" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.9074074074074" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.9074074074074" style="40" customWidth="1"/>
-    <col min="11" max="11" width="16" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.9074074074074" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.6296296296296" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.09166666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.09166666666667" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.2666666666667" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.725" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.9083333333333" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.45" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.9083333333333" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.9083333333333" style="11" customWidth="1"/>
+    <col min="11" max="11" width="18.6333333333333" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.35" spans="1:13">
-      <c r="A1" s="41" t="s">
+    <row r="1" ht="15" spans="1:11">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="63"/>
-    </row>
-    <row r="2" ht="15.15" spans="1:13">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:11">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="49">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="48">
+        <v>3</v>
+      </c>
+      <c r="B3" s="49">
         <v>4</v>
       </c>
-      <c r="B3" s="50">
-        <v>17</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="C3" s="50">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="65">
+        <v>1</v>
+      </c>
+      <c r="J3" s="66">
+        <v>0</v>
+      </c>
+      <c r="K3" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:11">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
+    </row>
+    <row r="9" ht="0.75" customHeight="1" spans="1:5">
+      <c r="A9" s="48">
+        <v>4</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49">
+        <v>1</v>
+      </c>
+      <c r="C10" s="50">
+        <v>5</v>
+      </c>
+      <c r="D10" s="51">
+        <v>2</v>
+      </c>
+      <c r="E10" s="51">
+        <v>3</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="65">
+        <v>5</v>
+      </c>
+      <c r="J10" s="66">
+        <v>2</v>
+      </c>
+      <c r="K10" s="67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:11">
+      <c r="A14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="60">
+        <v>5</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51">
+        <v>1</v>
+      </c>
+      <c r="E15" s="51">
+        <v>3</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:11">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="60">
         <v>6</v>
       </c>
-      <c r="D3" s="52">
-        <v>3</v>
-      </c>
-      <c r="E3" s="52">
-        <v>3</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="69">
-        <v>1</v>
-      </c>
-      <c r="J3" s="70">
-        <v>0.16</v>
-      </c>
-      <c r="K3" s="71">
-        <v>6</v>
-      </c>
-      <c r="L3" s="72">
-        <v>3</v>
-      </c>
-      <c r="M3" s="73">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
-    </row>
-    <row r="8" ht="15.15" spans="1:13">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-    </row>
-    <row r="9" ht="0.75" customHeight="1" spans="1:10">
-      <c r="A9" s="49">
-        <v>5</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50">
-        <v>18</v>
-      </c>
-      <c r="C10" s="51">
-        <v>6</v>
-      </c>
-      <c r="D10" s="52">
-        <v>3</v>
-      </c>
-      <c r="E10" s="52">
-        <v>3</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="69">
-        <v>1</v>
-      </c>
-      <c r="J10" s="70">
-        <v>0.16</v>
-      </c>
-      <c r="K10" s="71">
-        <v>6</v>
-      </c>
-      <c r="L10" s="72">
-        <v>3</v>
-      </c>
-      <c r="M10" s="73">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50">
-        <v>19</v>
-      </c>
-      <c r="C11" s="51">
-        <v>6</v>
-      </c>
-      <c r="D11" s="52">
-        <v>3</v>
-      </c>
-      <c r="E11" s="52">
-        <v>3</v>
-      </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="69">
-        <v>1</v>
-      </c>
-      <c r="J11" s="70">
-        <v>0.16</v>
-      </c>
-      <c r="K11" s="71">
-        <v>6</v>
-      </c>
-      <c r="L11" s="72">
-        <v>3</v>
-      </c>
-      <c r="M11" s="73">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="55"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="61">
-        <v>6</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-    </row>
-    <row r="19" ht="15.15" spans="1:13">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="61">
-        <v>7</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A19"/>
@@ -2346,69 +2234,69 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.72222222222222" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="11.4537037037037" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.4537037037037" customWidth="1"/>
-    <col min="4" max="4" width="26.9074074074074" customWidth="1"/>
+    <col min="1" max="1" width="12.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.45" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.45" customWidth="1"/>
+    <col min="4" max="4" width="26.9083333333333" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.2685185185185" customWidth="1"/>
-    <col min="8" max="8" width="17.0925925925926" customWidth="1"/>
-    <col min="9" max="9" width="9.90740740740741" customWidth="1"/>
-    <col min="10" max="10" width="13.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.0916666666667" customWidth="1"/>
+    <col min="9" max="9" width="9.90833333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.9083333333333" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="28.8" spans="1:15">
+    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
       <c r="A1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="H1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="M1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2674,43 +2562,43 @@
         <v>43199</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="G17" s="36">
         <v>76152875</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K17" s="1">
         <v>15195247771</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N17" s="1">
         <v>18901595777</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2721,43 +2609,43 @@
         <v>43217</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="G18" s="37">
         <v>76157761</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="1">
         <v>15195247771</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N18" s="1">
         <v>18018030678</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2768,43 +2656,43 @@
         <v>43221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1">
         <v>76165760</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1">
+        <v>15195247771</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K19" s="1">
-        <v>15195247772</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="N19" s="1">
         <v>15950705999</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -7611,15 +7499,15 @@
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.62962962962963" style="11"/>
-    <col min="2" max="2" width="15.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="12.7222222222222" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.2685185185185" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.4537037037037" customWidth="1"/>
+    <col min="1" max="1" width="8.63333333333333" style="11"/>
+    <col min="2" max="2" width="15.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.725" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.2666666666667" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.45" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3611111111111" customWidth="1"/>
+    <col min="7" max="7" width="11.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7627,22 +7515,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7650,64 +7538,64 @@
         <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="19">
         <v>43202</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
       <c r="B3" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="19">
         <v>43213</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22"/>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="19">
         <v>43217</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -7785,7 +7673,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
@@ -7794,7 +7682,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="14.25" spans="1:7">
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="28"/>
@@ -7803,7 +7691,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" ht="15.6" spans="1:7">
+    <row r="16" ht="14.25" spans="1:7">
       <c r="A16" s="22"/>
       <c r="B16" s="18"/>
       <c r="C16" s="28"/>
@@ -7902,7 +7790,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="17"/>
       <c r="B27" s="25"/>
       <c r="C27" s="28"/>
@@ -7911,7 +7799,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="18"/>
       <c r="C28" s="28"/>
@@ -8037,7 +7925,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" ht="15.6" spans="1:7">
+    <row r="42" ht="14.25" spans="1:7">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="28"/>
@@ -8046,7 +7934,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" ht="15.6" spans="1:7">
+    <row r="43" ht="14.25" spans="1:7">
       <c r="A43" s="22"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -8172,7 +8060,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" ht="15.6" spans="1:7">
+    <row r="57" ht="14.25" spans="1:7">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="28"/>
@@ -8181,7 +8069,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" ht="15.6" spans="1:7">
+    <row r="58" ht="14.25" spans="1:7">
       <c r="A58" s="22"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
@@ -8190,7 +8078,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" ht="15.6" spans="1:7">
+    <row r="59" ht="14.25" spans="1:7">
       <c r="A59" s="22"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -8199,7 +8087,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" ht="15.6" spans="1:7">
+    <row r="60" ht="14.25" spans="1:7">
       <c r="A60" s="22"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
@@ -8280,7 +8168,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" ht="15.6" spans="1:7">
+    <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="28"/>
@@ -8289,7 +8177,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" ht="15.6" spans="1:7">
+    <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="22"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
@@ -8298,7 +8186,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" ht="15.6" spans="1:7">
+    <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="22"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
@@ -8307,7 +8195,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" ht="15.6" spans="1:7">
+    <row r="72" ht="14.25" spans="1:7">
       <c r="A72" s="22"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
@@ -8388,7 +8276,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="15.6" spans="1:7">
+    <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="22"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
@@ -8397,7 +8285,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" ht="15.6" spans="1:7">
+    <row r="82" ht="14.25" spans="1:7">
       <c r="A82" s="22"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
@@ -8512,27 +8400,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.0925925925926" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.0916666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.725" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:4">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8540,13 +8428,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:4">
